--- a/biology/Médecine/Tumeur_mélanocytaire/Tumeur_mélanocytaire.xlsx
+++ b/biology/Médecine/Tumeur_mélanocytaire/Tumeur_mélanocytaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tumeur_m%C3%A9lanocytaire</t>
+          <t>Tumeur_mélanocytaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Une tumeur mélanocytaire est une tumeur développée à partir des cellules élaborant le pigment mélanique (mélanine) : les mélanocytes. Suivant les cas, elles peuvent être bénignes ou malignes.
 Les tumeurs mélanocytaires siègent essentiellement au niveau de la peau où elles sont favorisées par l'exposition solaire excessive, exceptionnellement dans l'œil, le système nerveux ou les muqueuses aérodigestives.
